--- a/P0035/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0035/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0035\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CAA951-070E-4F47-988E-A02E57BD2B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="13_ncr:1_{30CAA951-070E-4F47-988E-A02E57BD2B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04D438C4-8865-4932-BD47-F97E8BC3BAAF}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="17280" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -98,19 +98,22 @@
     <t>PR0001</t>
   </si>
   <si>
-    <t>000_2013-CV-0002_T7(1316-1374)</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0035/01_CONTRATACION/2013-CV-0002_T7/000_2013-CV-0002_T7(1316-1374).pdf</t>
+    <t>000_2013-CV-0002_T14(2664-2738)</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0035/01_CONTRATACION/2013-CV-0002_T14/000_2013-CV-0002_T14(2664-2738).pdf</t>
   </si>
   <si>
     <t>Corporación colombiana de investigación agropecuaria CORPOICA</t>
   </si>
   <si>
+    <t>Fondo Adaptación</t>
+  </si>
+  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>Séptimo informe bimestral técnico y financiero sobre la ejecución del proyecto "Reducción de riesgo y adaptación al cambio climático MAPA"</t>
+    <t>Duodecimo informe bimestral técnico y financiero sobre la ejecución del proyecto que lleva como título: Reducción de riesgo y adaptación al cambio climático "MAPA".</t>
   </si>
   <si>
     <t>Informe</t>
@@ -119,13 +122,13 @@
     <t>pdf</t>
   </si>
   <si>
-    <t>El informe se encuentra estructurado de acuerdo a los siete productos que integran el proyecto. Se muestran los avances realizados para cada uno de los componentes en términos de su metodología y resultados. Los siete productos son: 1) Identificación a escala regional de zonas susceptibles a efectos de los eventos climáticos extremos (lluvias fuertes, sequías, heladas, etc.), 2) indicadores locales de vulnerabilidad de los sistemas de producción seleccionados a eventos climáticos extremos, 3) sistemas de alerta agroclimática temprana (SAAT) para reducir la vulnerabilidad de los sistemas productivos priorizados, 4) sistemas de asistencia técnica y transferencia de tecnología con capacidad de evaluar riesgos agroclimáticos a nivel local y usar sistemas de alerta temprana, 5) ofertas tecnológicas disponibles para los sistemas productivos priorizados por departamento con potencial para enfrentar el riesgo a eventos climáticos extremos y generar reactivación económica, 6) plan de manejo integrado de los sistemas productivos priorizados y 7) servicios de extensión y asistencia técnica capacitados para transferir tecnologías recomendadas de manejo de los sistemas de producción.</t>
+    <t>El informe se encuentra estructurado de acuerdo a los siete productos que integran el proyecto. Se muestran los avances realizados para cada uno de los componentes en términos de su metodología y resultados. Los siete productos son: 1) Identificación a escala regional de zonas susceptibles a efectos de los eventos climáticos extremos (lluvias fuertes, sequías, heladas, etc.), 2) Indicadores locales de vulnerabilidad de los sistemas de producción seleccionados a eventos climáticos extremos, 3) Sistemas de alerta agroclimática temprana (SAAT) para reducir la vulnerabilidad de los sistemas productivos priorizados, 4) Sistemas de asistencia técnica y transferencia de tecnología con capacidad de evaluar riesgos agroclimáticos a nivel local y usar sistemas de alerta temprana, 5) Ofertas tecnológicas disponibles para los sistemas productivos priorizados por departamento con potencial para enfrentar el riesgo a eventos climáticos extremos y generar reactivación económica, 6) Plan de manejo integrado de los sistemas productivos priorizados y 7) Servicios de extensión y asistencia técnica capacitados para transferir tecnologías recomendadas de manejo de los sistemas de producción. Menciona anexos pero no se encuentran los archivos.</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>En este informe se muestran los reporte de avances para los siete componentes del proyecto.</t>
+    <t>En este informe se muestran los reporte de avances, no obstante el pdf está dividido en dos partes, en este documento se tiene la información de la página 1 a 142. La información incluye departamentos fuera del area de La Mojana.</t>
   </si>
   <si>
     <t>Riesgo, eventos climáticos extremos, sistemas de producción, vulnerabilidad y tecnología.</t>
@@ -134,28 +137,19 @@
     <t>PR0002</t>
   </si>
   <si>
-    <t>000_2013-CV-0002_T14(2538-2654)</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0035/01_CONTRATACION/2013-CV-0002_T14/000_2013-CV-0002_T14(2538-2654).pdf</t>
-  </si>
-  <si>
-    <t>Informe de avance y descripción de actividades generales del proyecto "Reducción de riesgo y adaptación al cambio climático".</t>
-  </si>
-  <si>
-    <t>El informe está estructurado de acuerdo a los distintos departamentos que están siendo estudiados (Magdalena, Nariño, Boyacá, Cundinamarca, Antioquia, Córdoba, Tolima, Atlántico, Bolívar y Chocó). Para cada departamento se enlista el avance de actividades en torno a los distintos sistemas productivos priorizados. El documento finaliza con un avance con respecto al producto 4 y 7, los cuales hacen referencia a la parte divulgativa del proyecto.</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>Anexo 1. Oficio URDG, Anexo 2. Oficio ICA, Anexo 3. Plantillas para el levantamiento de costos Antioquia y Chocó, Anexo 4. Plantillas de seguimiento en el departamento de Nariño, Anexo 5. Registro fotográfico de Valle del Cauca.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El documento se encuentra incompleto, inicia en la página 79 del informe por lo cual carece de un título, índice, introducción, resumen y demás partes iniciales. </t>
-  </si>
-  <si>
-    <t>Sistemas de producción, tecnología, territorio colombiano y asistencia técnica.</t>
+    <t>000_2013-CV-0002_T15(2739-2887)</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0035/01_CONTRATACION/2013-CV-0002_T15/000_2013-CV-0002_T15(2739-2887).pdf</t>
+  </si>
+  <si>
+    <t>Continuación duodecimo informe bimestral técnico y financiero sobre la ejecución del proyecto que lleva como título: Reducción de riesgo y adaptación al cambio climático "MAPA".</t>
+  </si>
+  <si>
+    <t>El documento corresponde con la segunda parte del PR0001 va de la pagina 143 a 438.  La información incluye departamentos fuera del area de La Mojana.</t>
+  </si>
+  <si>
+    <t>Sistemas de producción, riesgos, tecnología, territorio colombiano y asistencia técnica.</t>
   </si>
   <si>
     <t>PR0003</t>
@@ -170,13 +164,13 @@
     <t>Compilación de informes semestrales de avance para los productos 2, 3, 4, 6 y 7 del proyecto "Reducción de riesgo y adaptación al cambio climático".</t>
   </si>
   <si>
-    <t xml:space="preserve">El documento se encuentra compuesto por cuatro informes distintos. El primer informe hace referencia al segundo producto del proyecto, donde se entrega el tercer grupo de mapas de zonificación de la aptitud agroclimática y se identifican los nichos productivos por sistema de producción y escenario de variabilidad para los departamentos de Cauca, Cesar, Huila, Sucre, Valle del Cauca y la Guajira. El segundo informe muestra un reporte de avance en torno al tercer producto, donde se busca integrar la información de los departamentos y los sistemas productivos priorizados. El tercer informe muestra la metodología y resultados para los productos 4 y 7, donde se busca divulgar los resultados del proyecto y, por medio de capacitaciones, mejorar las capacidades locales de las áreas de estudio para cada departamento del país. El último informe presenta la metodología y resultados del producto 6, donde se identificaron tecnologías validadas en sistemas productivos de tomate, ají topito (Departamento de Atlántico) y cebolla de bulbo (Departamento de Norte de Santander) así como tecnologías promisorias para los departamentos de Boyacá, Córdoba, Cundinamarca, Santander, Magdalena, Valle del Cauca y Tolima. </t>
+    <t>El documento está compuesto por cuatro informes distintos. El primer informe se refiere al segundo producto del proyecto "Indicadores locales de vulnerabilidad de los sistemas de producción seleccionados a eventos climáticos extremos", donde se entrega el tercer grupo de mapas de zonificación de la aptitud agroclimática y se identifican los nichos productivos por sistema de producción y escenario de variabilidad para los departamentos de Cauca, Cesar, Huila, Sucre, Valle del Cauca y La Guajira. El segundo informe presenta un reporte de avance del tercer producto "Sistema de Alerta Agroclimática Temprana (SAAT) para reducir la vulnerabilidad de los sistemas de producción priorizados", cuyo objetivo es integrar la información de los departamentos y sistemas productivos priorizados. El tercer informe detalla la metodología y resultados para los productos 4 y 7 "Sistemas de asistencia técnica y transferencia de tecnología con capacidad de evaluar riesgos agroclimáticos a nivel local y usar el sistema de alerta temprana y servicios de extensión y asistencia técnica espaciados para transferir tecnologías recomendadas de manejo de los sistemas de producción". Este informe busca divulgar los resultados del proyecto y, mediante capacitaciones, mejorar las capacidades locales de las áreas de estudio para cada departamento del país. El último informe presenta la metodología y resultados del producto 6 "Plan de manejo integrado de los sistemas productivos priorizados", donde se identificaron tecnologías validadas en sistemas productivos de tomate, ají topito (Departamento del Atlántico) y cebolla de bulbo (Departamento de Norte de Santander), así como tecnologías promisorias para los departamentos de Boyacá, Córdoba, Cundinamarca, Santander, Magdalena, Valle del Cauca y Tolima.</t>
   </si>
   <si>
     <t>El documento es una compilación de cuatro infromes diferentes.</t>
   </si>
   <si>
-    <t>Tecnología, sistemas de producción, SIG, asistencia técnica, vulnerabilidad y riesgo.</t>
+    <t>Tecnología, sistemas de producción, asistencia técnica, vulnerabilidad y riesgo.</t>
   </si>
   <si>
     <t>PR0004</t>
@@ -188,10 +182,10 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0035/01_CONTRATACION/2013-CV-0002_T19/000_2013-CV-0002_T19(3255-3280).pdf</t>
   </si>
   <si>
-    <t>Informe bimestral correspondiente al producto 5 (Ofertas tecnológicas disponibles para los sistemas productivos priorizados por departamento con potencial para enfrentar el riesgo a eventos climáticos extremos y generar reactivación económica) del proyecto "Reducción de riesgo y adaptación al cambio climático".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El informe presenta una introducción y posteriormente muestra la metodología y los resultados con respecto al producto 5 del proyecto. Se realizó una caracterización vinculada a los riesgos agroclimáticos del territorio de los sistemas productivos priorizados para los departamentos de Boyacá, Córdoba, Cundinamarca, Magdalena, Santander, Tolima y Valle del Cauca. </t>
+    <t>Informe semestral correspondiente al producto 5: Ofertas tecnológicas disponibles para los sistemas productivos priorizados por departamento con potencial para enfrentar el riesgo a eventos climáticos extremos y generar reactivación económica del proyecto "Reducción de riesgo y adaptación al cambio climático".</t>
+  </si>
+  <si>
+    <t>El producto cinco tiene por objetivo identificar, valorar y seleccionar en forma participativa opciones tecnológicas, que mejoren la tolerancia de los sistemas agropecuarios en las zonas afectadas por la ola invernal 2010 y 2011, a los efectos de eventos climáticos extremos (inundaciones, excesos de humedad, sequias, heladas y deslizamientos), sin que pierdan su viabilidad socioeconómica y ambiental. En tal sentido se realiza una caracterización de los sistemas productivos priorizados vinculada a los riesgos agroclimáticos del territorio como insumo para la definición de las opciones tecnológicas. En el informe se realiza un breve resumen de los principales resultados en cada uno de los sistemas productivos priorizados para los departamentos de Boyacá, Córdoba, Cundinamarca, Magdalena, Santander, Tolima y Valle del Cauca. En el departamento de Cordoba municipio de Ayapel se priorizó el cultivo de Ñame, se realizó una valoración técnica y social frente a las prácticas de su cultivo.</t>
   </si>
   <si>
     <t>El producto 5 hace referencia a las ofertas tecnológicas disponibles para los sistemas productivos priorizados por departamento con potencial para enfrentar el riesgo a eventos climáticos extremos y generar reactivación económica.</t>
@@ -200,33 +194,6 @@
     <t>Caracterización, sistemas de producción, tolerancia, tecnología y eventos climáticos extremos.</t>
   </si>
   <si>
-    <t>PR0005</t>
-  </si>
-  <si>
-    <t>008_2013-CV-0002_T24(4006-4010)</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0035/01_CONTRATACION/2013-CV-0002_T24/008_2013-CV-0002_T24(4006-4010).pdf</t>
-  </si>
-  <si>
-    <t>Ministerio de agricultura y desarrollo rural</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decreto número 4828 del 2010, por el cual se dictan disposiciones para atender la situación de desastre nacional y de emergencia económica, social y ecológica por grave calamidad pública declarada en el territorio colombiano e impedir la extensión de sus efectos. </t>
-  </si>
-  <si>
-    <t>Decreto</t>
-  </si>
-  <si>
-    <t>El decreto inicia mencionando las consideraciones y posteriormente se divide en cuatro capítulos donde se decreta lo siguiente: 1) Instrumentos financieros con la finalidad de asignar recursos que permitan la recuperación de la capacidad productiva y la estabilidad socioeconómica del sector rural afectado, 2) Instrumentos para la atención sanitaria y fitosanitaria, 3) Medidas relacionadas con distritos de adecuación de tierras y 4) Disposiciones comunes a los artículos anteriores. El decreto finaliza con la firma de distintos ministros.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este decreto tiene como propósito principal mitigar los impactos generados por la crisis climática en el 2010. </t>
-  </si>
-  <si>
-    <t>Disposiciones, desastre nacional, pérdidas socioeconómicas, incentivos e instrumentos.</t>
-  </si>
-  <si>
     <t>PR0006</t>
   </si>
   <si>
@@ -242,13 +209,19 @@
     <t>El documento corresponde al Informe Técnico Final del componente de actualización de los sistemas de producción de la región de La Mojana junto con la valoración económica de las perdidas por inundación al tenor de lo planteado en la minuta del convenio 1774 entre CORPOICA y el Fondo Adaptación</t>
   </si>
   <si>
-    <t>El documento se encuentra estructurado en dos capítulos. El primer capitulo aborda la actualización de la información sobre los sistemas de producción de la región de La Mojana. Este capitulo realiza una breve introducción sobre la necesidad de actualización de la información sobre los sistemas productivos de la región, posterior a esto, detalla la metodología con la que se realizo el estudio, el tamaño de la muestra, la ubicación, población y el análisis estadístico. Por último, en la sección de discusión y resultados, describe brevemente el área de estudio, las características del suelo de la zona y las condiciones climatológicas; detalla el componente biótico de los sistemas productivos analizados; aborda el manejo que se le da a dichos sistemas productivos y trata los costos del manejo y producción de dichos sistemas. En el segundo y último capítulo, se detalla la medición de las perdidas por inundación en la región de La Mojana. En esta sección del documento se realiza un análisis económico de las afectaciones causadas por inundaciones. Este capítulo presenta información en dos momentos históricos: antes y después de la inundación y una proyección de la dinámica de los sistemas de producción. Para lo anterior, el análisis se basa en información de estadísticas oficiales sobre el número de hectáreas de cultivos y pastos que se perdieron en la región, al igual que los animales muertos, para cruzarlo con los patrones de costos que se levantaron en la región</t>
-  </si>
-  <si>
-    <t>El informe contiene información relevante para la toma de decisiones, sin embargo contiene cartografía sin geometrías lo cual puede limitar su utilidad en los análisis</t>
-  </si>
-  <si>
-    <t>Sistemas productivos, Cultivos, Pastos, Análisis de costos, Valoración económica, Costos, Arroz, Maíz, Ahuyama, Ajonjolí, Algodón, Cacao, Caña Panelera, Caucho, Coco, Frijol, Limón, Ñame, Piña, Yuca, Zapote, Plátano, Suelos, Manejo de sistemas productivos, Perdidas por inundación, Pérdidas económicas</t>
+    <t>El documento está estructurado en dos capítulos. El primer capítulo aborda la actualización de la información sobre los sistemas de producción de la región de La Mojana. Comienza con una breve introducción sobre la necesidad de actualizar dicha información, seguida de una explicación detallada de la metodología utilizada en el estudio, incluyendo el tamaño de la muestra, la ubicación, la población y el análisis estadístico. En la sección de discusión y resultados, se describe brevemente el área de estudio, las características del suelo y las condiciones climatológicas. También se detalla el componente biótico de los sistemas productivos analizados, el manejo de estos sistemas y los costos asociados al manejo y producción. El segundo y último capítulo se centra en la medición de las pérdidas por inundación en la región de La Mojana. Aquí se presenta un análisis económico de las afectaciones causadas por las inundaciones, incluyendo información en dos momentos históricos: antes y después de la inundación, así como una proyección de la dinámica de los sistemas de producción. Para ello, se utiliza información de estadísticas oficiales sobre el número de hectáreas de cultivos y pastos perdidos, así como los animales muertos, comparándola con los patrones de costos registrados en la región.</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0035/01_CONTRATACION/2013-CV-0002_T2/001_2013-CV-0002_T2(201-240).pdf</t>
+  </si>
+  <si>
+    <t>El informe contiene información relevante para la toma de decisiones, es un informe técnico final. Sin embargo contiene cartografía sin geometrías lo cual puede limitar su utilidad en los análisis</t>
+  </si>
+  <si>
+    <t>Sistemas productivos, cultivos, pastos, análisis de costos, valoración económica, costos, arroz, maíz, ahuyama, ajonjolí, algodón, cacao, caña panelera, caucho, coco, frijol, limón, ñame, piña, yuca, zapote, plátano, suelos, manejo de sistemas productivos, perdidas por inundación, pérdidas económicas.</t>
   </si>
   <si>
     <t>PR0007</t>
@@ -260,26 +233,65 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0035/01_CONTRATACION/2013-CV-0002_T2/002_2013-CV-0002_T2(241-407).pdf</t>
   </si>
   <si>
-    <t>Fondo Adaptación</t>
-  </si>
-  <si>
     <t>El documento corresponde al Informe Técnico Final del estudio de Prefactibilidad ambiental y socioeconómica del uso de sistemas agrosilvopastoriles en nichos ganaderos de la región de La Mojana, llevado a cabo en el marco del convenio 1774 entre CORPOICA y el Fondo Adaptación en el año 2012</t>
   </si>
   <si>
-    <t>El presente informe detalla la metodología y resultados del estudio realizado para estimar la prefactibilidad ambiental y socioeconómica de la implementación de sistemas agroforestales y silvopastoriles en nichos de pequeños ganaderos de la región de La Mojana. Para lo cual, se actualizaron los mapas sobre el uso o distribución de áreas en producción ganadera en cada uno de los municipios de La Mojana, por medio de un enfoque de cartografía participativa. Posterior a esto, se recolectó información primaria y secundaria para definir los sistemas de producción bovina y agroforestales en la zona de estudio. La información recolectada aborda datos sobre, pasturas, especies leñosas presentes en los predios, manejo de potreros, sector pecuario, adopción de tecnologías, Producción de leche y carne. Por último, se estableció una base de datos, la cual contiene inversión requerida para el establecimiento de un SSP, costos de mantenimiento, impacto esperado, análisis económico, claves para el éxito e impacto ambiental.</t>
+    <t>El presente informe detalla la metodología y resultados del estudio realizado para estimar la prefactibilidad ambiental y socioeconómica de la implementación de sistemas agroforestales y silvopastoriles en nichos de pequeños ganaderos de la región de La Mojana. Para lo cual, se actualizaron los mapas sobre el uso o distribución de áreas en producción ganadera en cada uno de los municipios de La Mojana, por medio de un enfoque de cartografía participativa. Posterior a esto, se recolectó información primaria y secundaria para definir los sistemas de producción bovina y agroforestales en la zona de estudio. La información recolectada aborda datos sobre, pasturas, especies leñosas presentes en los predios, manejo de potreros, sector pecuario, adopción de tecnologías, producción de leche y carne. Por último, se estableció una base de datos, la cual contiene inversión requerida para el establecimiento de un Sistema Silvopastoril (SSP), costos de mantenimiento, impacto esperado, análisis económico, claves para el éxito e impacto ambiental. Contiene 8 anexos, incluyendo en el ultimo anexo un catálogo de especies arboreas de la región.</t>
   </si>
   <si>
     <t>El informe presenta información muestra a los sistemas silvopastoriles como una opción viable como alternativa económica de solución a la problemática de pobreza y degradación de recursos naturales.</t>
   </si>
   <si>
-    <t>Sistemas productivos, Sistemas silvopastoriles, Sistemas agroforestales, Cartografía participativa, Costos, Manejo de sistemas productivos, Solución de problemas, Alternativa económica</t>
+    <t>Sistemas productivos, sistemas silvopastoriles, sistemas agroforestales, cartografía participativa, costos, manejo de sistemas productivos, solución de problemas, alternativa económica</t>
+  </si>
+  <si>
+    <t>PR0008</t>
+  </si>
+  <si>
+    <t>000_2013-CV-0002_T7(1375-1406)</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0035/01_CONTRATACION/2013-CV-0002_T7/000_2013-CV-0002_T7(1375-1406).pdf</t>
+  </si>
+  <si>
+    <t>Informe Técnico- Producto 3. Sistemas de Alerta agroclimática (SAA) para reducir la vulnerabilidad de los sistemas productivos priorizados. Acción del diseño del algoritmo matemático para vincular en un sofware en extensión .NET (plataforma web), cuyo entregable es el modelo de predicción climática seleccionado y ajustado.</t>
+  </si>
+  <si>
+    <t>En el documento se define el proceso de Sistemas de Alertas agroclimáticas tempranas, a través de tres modulos. 1. Clima, que vincula la predicción climática. 2. Analisis agroclimático. 3. Medidas de adaptación y ofertas tecnológicas. El SAAT es una herramienta de toma de decisiones que permitirá a los asistentes técnicos de los sistemas productivos priorizados, planificar diferentes ofertas tecnológicas en respuesta a las condiciones y fenómenos climáticos para las regiones determinadas. En esta fase el SAAT s eha desarrollado para el departamento del Atlantico en parcelas de validación de aji topito y tomate.</t>
+  </si>
+  <si>
+    <t>El informe contiene un algoritmo que se ha desarrollado preliminarmente en el departamento del Atlantico para dos cultivos: Aji topito y Tomate. No obstante, su alcance puede extenderse a otras zonas del país, incluido el departamento de Bolivar.</t>
+  </si>
+  <si>
+    <t>Diseño, algoritmo matemático, modelos climáticos, predicción climática, Sistema de alertas agroclimáticas tempranas SAAT, Oferta tecnológica, Indice de Palmer</t>
+  </si>
+  <si>
+    <t>PR0009</t>
+  </si>
+  <si>
+    <t>000_2013-CV-0002_T12(2136-2336)</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0035/03_OTROS/000_2013-CV-0002_T12(2136-2336).pdf</t>
+  </si>
+  <si>
+    <t>Documento que contiene unicamente cartografia escaneada del proyecto Reducción del riesgo y Adaptación al cambio climático MAPA</t>
+  </si>
+  <si>
+    <t>Este documento solo incluye mapas de los diferentes departamentos priorizados en el estudio. La información relevante corresponde al Departamento de Córdoba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El archivo no contiene geometrias, solo mapas escaneados. Las paginas de interes son las del 45 - 54 </t>
+  </si>
+  <si>
+    <t>Cartografía, departamento de Córdoba, exceso hídrico, deslizamientos, deficit hídrico evento Niño, exceso hidrico 1980 - 2011, Nichos productivos, Ñame</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +313,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -310,7 +335,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -372,23 +397,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -726,6 +767,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -735,13 +783,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -761,7 +802,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R8" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R11" totalsRowShown="0" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -777,9 +818,9 @@
     <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="6"/>
     <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="5"/>
     <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="3" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="3"/>
     <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="1" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="1"/>
     <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1049,30 +1090,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:AL14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="134.28515625" customWidth="1"/>
+    <col min="6" max="6" width="63.42578125" customWidth="1"/>
+    <col min="7" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" customWidth="1"/>
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1128,21 +1170,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>22</v>
@@ -1151,54 +1193,54 @@
         <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="N2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="P2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="R2" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>33</v>
       </c>
+      <c r="D3" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="E3" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>22</v>
@@ -1207,51 +1249,51 @@
         <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="E4" s="1">
         <v>2015</v>
@@ -1263,51 +1305,51 @@
         <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E5" s="1">
         <v>2014</v>
@@ -1319,206 +1361,420 @@
         <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="1">
-        <v>2010</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="L6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="O6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="1" t="s">
+      <c r="Q6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="4" t="s">
+      <c r="R6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>62</v>
-      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E7" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="O7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
+      <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2014</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
+      <c r="A9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2012</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="H9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>70</v>
+      <c r="M9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>78</v>
-      </c>
+    <row r="10" spans="1:38" s="13" customFormat="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+    </row>
+    <row r="11" spans="1:38" s="13" customFormat="1"/>
+    <row r="12" spans="1:38">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+    </row>
+    <row r="13" spans="1:38">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+    </row>
+    <row r="14" spans="1:38">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1530,6 +1786,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1673,37 +1938,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>